--- a/run1link.xlsx
+++ b/run1link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunnyw\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC1F1E7-FEC5-4699-B0D9-FEA089D25AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CAFECB-3778-4B9B-87B3-F3C3649DFB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8490" yWindow="490" windowWidth="11340" windowHeight="10780" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'+NAME CHANGE'!$A$1:$D$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$507</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4045,10 +4046,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4141,7 +4143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" hidden="1">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4306,7 +4308,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" hidden="1">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -4431,7 +4433,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" hidden="1">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -4476,12 +4478,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" hidden="1">
       <c r="A55" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" hidden="1">
       <c r="A56" t="s">
         <v>106</v>
       </c>
@@ -4534,7 +4536,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" hidden="1">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -4547,7 +4549,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" hidden="1">
       <c r="A65" t="s">
         <v>122</v>
       </c>
@@ -4576,7 +4578,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" hidden="1">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -4613,7 +4615,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" hidden="1">
       <c r="A74" t="s">
         <v>138</v>
       </c>
@@ -4626,7 +4628,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" hidden="1">
       <c r="A76" t="s">
         <v>141</v>
       </c>
@@ -4639,7 +4641,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" hidden="1">
       <c r="A78" t="s">
         <v>144</v>
       </c>
@@ -4652,7 +4654,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" hidden="1">
       <c r="A80" t="s">
         <v>147</v>
       </c>
@@ -4761,7 +4763,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" hidden="1">
       <c r="A94" t="s">
         <v>174</v>
       </c>
@@ -4798,7 +4800,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" hidden="1">
       <c r="A99" t="s">
         <v>183</v>
       </c>
@@ -4875,7 +4877,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" hidden="1">
       <c r="A109" t="s">
         <v>202</v>
       </c>
@@ -4904,7 +4906,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" hidden="1">
       <c r="A113" t="s">
         <v>209</v>
       </c>
@@ -4917,7 +4919,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" hidden="1">
       <c r="A115" t="s">
         <v>212</v>
       </c>
@@ -4970,7 +4972,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" hidden="1">
       <c r="A122" t="s">
         <v>225</v>
       </c>
@@ -5023,17 +5025,17 @@
         <v>235</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" hidden="1">
       <c r="A129" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" hidden="1">
       <c r="A130" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" hidden="1">
       <c r="A131" t="s">
         <v>238</v>
       </c>
@@ -5046,7 +5048,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" hidden="1">
       <c r="A133" t="s">
         <v>241</v>
       </c>
@@ -5083,7 +5085,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" hidden="1">
       <c r="A138" t="s">
         <v>250</v>
       </c>
@@ -5112,7 +5114,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" hidden="1">
       <c r="A142" t="s">
         <v>257</v>
       </c>
@@ -5149,7 +5151,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" hidden="1">
       <c r="A147" t="s">
         <v>266</v>
       </c>
@@ -5162,12 +5164,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" hidden="1">
       <c r="A149" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" hidden="1">
       <c r="A150" t="s">
         <v>270</v>
       </c>
@@ -5196,7 +5198,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" hidden="1">
       <c r="A154" t="s">
         <v>271</v>
       </c>
@@ -5209,7 +5211,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" hidden="1">
       <c r="A156" t="s">
         <v>274</v>
       </c>
@@ -5270,7 +5272,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" hidden="1">
       <c r="A164" t="s">
         <v>289</v>
       </c>
@@ -5283,7 +5285,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" hidden="1">
       <c r="A166" t="s">
         <v>291</v>
       </c>
@@ -5304,17 +5306,17 @@
         <v>846</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" hidden="1">
       <c r="A169" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" hidden="1">
       <c r="A170" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" hidden="1">
       <c r="A171" t="s">
         <v>296</v>
       </c>
@@ -5367,7 +5369,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="178" spans="1:2" s="4" customFormat="1">
+    <row r="178" spans="1:2" s="4" customFormat="1" ht="13" hidden="1">
       <c r="A178" s="4" t="s">
         <v>1080</v>
       </c>
@@ -5484,7 +5486,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" hidden="1">
       <c r="A193" t="s">
         <v>333</v>
       </c>
@@ -5513,7 +5515,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" hidden="1">
       <c r="A197" t="s">
         <v>340</v>
       </c>
@@ -5622,7 +5624,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" hidden="1">
       <c r="A211" t="s">
         <v>366</v>
       </c>
@@ -5667,7 +5669,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" hidden="1">
       <c r="A217" t="s">
         <v>377</v>
       </c>
@@ -5720,12 +5722,12 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" hidden="1">
       <c r="A224" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" hidden="1">
       <c r="A225" t="s">
         <v>380</v>
       </c>
@@ -5738,17 +5740,17 @@
         <v>382</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" hidden="1">
       <c r="A227" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" hidden="1">
       <c r="A228" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" hidden="1">
       <c r="A229" t="s">
         <v>385</v>
       </c>
@@ -5769,12 +5771,12 @@
         <v>389</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" hidden="1">
       <c r="A232" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" hidden="1">
       <c r="A233" t="s">
         <v>391</v>
       </c>
@@ -5803,27 +5805,27 @@
         <v>397</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" hidden="1">
       <c r="A237" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" hidden="1">
       <c r="A238" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" hidden="1">
       <c r="A239" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" hidden="1">
       <c r="A240" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" hidden="1">
       <c r="A241" t="s">
         <v>402</v>
       </c>
@@ -5924,7 +5926,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" hidden="1">
       <c r="A254" t="s">
         <v>425</v>
       </c>
@@ -5977,7 +5979,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" hidden="1">
       <c r="A261" t="s">
         <v>438</v>
       </c>
@@ -5990,7 +5992,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" hidden="1">
       <c r="A263" t="s">
         <v>441</v>
       </c>
@@ -6043,7 +6045,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" hidden="1">
       <c r="A270" t="s">
         <v>454</v>
       </c>
@@ -6176,7 +6178,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" hidden="1">
       <c r="A287" t="s">
         <v>487</v>
       </c>
@@ -6237,7 +6239,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" hidden="1">
       <c r="A295" t="s">
         <v>492</v>
       </c>
@@ -6290,7 +6292,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" hidden="1">
       <c r="A302" t="s">
         <v>505</v>
       </c>
@@ -6367,7 +6369,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" hidden="1">
       <c r="A312" t="s">
         <v>524</v>
       </c>
@@ -6396,7 +6398,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" hidden="1">
       <c r="A316" t="s">
         <v>531</v>
       </c>
@@ -6417,17 +6419,17 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" hidden="1">
       <c r="A319" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" hidden="1">
       <c r="A320" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" hidden="1">
       <c r="A321" t="s">
         <v>1145</v>
       </c>
@@ -6448,17 +6450,17 @@
         <v>535</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" hidden="1">
       <c r="A324" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" hidden="1">
       <c r="A325" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" hidden="1">
       <c r="A326" t="s">
         <v>538</v>
       </c>
@@ -6567,7 +6569,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" hidden="1">
       <c r="A340" t="s">
         <v>565</v>
       </c>
@@ -6612,7 +6614,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" hidden="1">
       <c r="A346" t="s">
         <v>576</v>
       </c>
@@ -6633,7 +6635,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" hidden="1">
       <c r="A349" t="s">
         <v>581</v>
       </c>
@@ -6686,7 +6688,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" hidden="1">
       <c r="A356" t="s">
         <v>594</v>
       </c>
@@ -6715,7 +6717,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" hidden="1">
       <c r="A360" t="s">
         <v>601</v>
       </c>
@@ -6920,12 +6922,12 @@
         <v>651</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" hidden="1">
       <c r="A386" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" hidden="1">
       <c r="A387" t="s">
         <v>1066</v>
       </c>
@@ -6938,12 +6940,12 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" hidden="1">
       <c r="A389" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" hidden="1">
       <c r="A390" t="s">
         <v>653</v>
       </c>
@@ -6964,7 +6966,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" hidden="1">
       <c r="A393" t="s">
         <v>658</v>
       </c>
@@ -7033,7 +7035,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" hidden="1">
       <c r="A402" t="s">
         <v>675</v>
       </c>
@@ -7078,7 +7080,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" hidden="1">
       <c r="A408" t="s">
         <v>682</v>
       </c>
@@ -7251,7 +7253,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" hidden="1">
       <c r="A430" t="s">
         <v>725</v>
       </c>
@@ -7264,7 +7266,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" hidden="1">
       <c r="A432" t="s">
         <v>728</v>
       </c>
@@ -7293,7 +7295,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" hidden="1">
       <c r="A436" t="s">
         <v>735</v>
       </c>
@@ -7306,7 +7308,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" hidden="1">
       <c r="A438" t="s">
         <v>738</v>
       </c>
@@ -7447,7 +7449,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" hidden="1">
       <c r="A456" t="s">
         <v>772</v>
       </c>
@@ -7484,7 +7486,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:2" hidden="1">
       <c r="A461" t="s">
         <v>781</v>
       </c>
@@ -7513,7 +7515,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" hidden="1">
       <c r="A465" t="s">
         <v>788</v>
       </c>
@@ -7526,17 +7528,17 @@
         <v>790</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" hidden="1">
       <c r="A467" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" hidden="1">
       <c r="A468" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" hidden="1">
       <c r="A469" t="s">
         <v>793</v>
       </c>
@@ -7597,12 +7599,12 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:2" hidden="1">
       <c r="A477" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" hidden="1">
       <c r="A478" t="s">
         <v>806</v>
       </c>
@@ -7623,7 +7625,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" hidden="1">
       <c r="A481" t="s">
         <v>811</v>
       </c>
@@ -7732,7 +7734,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:2" hidden="1">
       <c r="A495" t="s">
         <v>1050</v>
       </c>
@@ -7753,12 +7755,12 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" spans="1:2" hidden="1">
       <c r="A498" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" hidden="1">
       <c r="A499" t="s">
         <v>1044</v>
       </c>
@@ -7787,12 +7789,12 @@
         <v>835</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" spans="1:2" hidden="1">
       <c r="A503" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:2" hidden="1">
       <c r="A504" t="s">
         <v>837</v>
       </c>
@@ -7822,6 +7824,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B507" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B165" r:id="rId1" xr:uid="{F9D046F6-07FD-4DC9-9C76-BE7942CF4D1C}"/>
     <hyperlink ref="B167" r:id="rId2" xr:uid="{33A44AA8-C016-453A-9275-97C517B31CBD}"/>
